--- a/srcript/reg_tab/Tables/tcam_table.xlsx
+++ b/srcript/reg_tab/Tables/tcam_table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="l3_tunnel_tcam_t" sheetId="17" r:id="rId1"/>
@@ -13,17 +13,19 @@
     <sheet name="l3_defip_data_only_t" sheetId="6" r:id="rId4"/>
     <sheet name="l2_user_entry_tcam_t" sheetId="11" r:id="rId5"/>
     <sheet name="l2_user_entry_data_only_t" sheetId="10" r:id="rId6"/>
-    <sheet name="my_station_tcam_t" sheetId="13" r:id="rId7"/>
+    <sheet name="MY_STATION_TCAM_ONLY_t" sheetId="13" r:id="rId7"/>
     <sheet name="my_station_tcam_data_only_t" sheetId="14" r:id="rId8"/>
     <sheet name="udf_tcam_t" sheetId="15" r:id="rId9"/>
     <sheet name="udf_tcam_data_only_t" sheetId="16" r:id="rId10"/>
+    <sheet name="VLAN_SUBNET_TCAM_ONLY_t" sheetId="18" r:id="rId11"/>
+    <sheet name="VLAN_SUBNET_TCAM_DATA_ONLY_t" sheetId="19" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="443">
   <si>
     <t>-</t>
   </si>
@@ -582,11 +584,6 @@
 该表由软件更新设置，建议硬件初始化为全0</t>
   </si>
   <si>
-    <t>KEY_TYPE=0: 374
-KEY_TYPE=1: 374
-KEY_TYPE=3: 472</t>
-  </si>
-  <si>
     <t>16K</t>
   </si>
   <si>
@@ -783,10 +780,6 @@
   </si>
   <si>
     <t>COPY_TO_CPU</t>
-  </si>
-  <si>
-    <t>MY_STATION_TCAM_ONLY_t</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TCAM for MY_STATION_TCAM_t.</t>
@@ -1245,22 +1238,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>49:48</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50:50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>82:51</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>92:83</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>L3_DEFIP_ENTRY_tcam</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1366,14 +1343,164 @@
   </si>
   <si>
     <t>hira_mask</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVALID_MASK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESERVED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>48:48</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50:49</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>51:51</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>83:52</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>93:84</t>
+  </si>
+  <si>
+    <t>KEY_TYPE=0: 376
+KEY_TYPE=1: 376
+KEY_TYPE=3: 470</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MY_STATION_TCAM_ONLY_t</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLAN_SUBNET_TCAM_ONLY_t</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>64:1</t>
+  </si>
+  <si>
+    <t>64:1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key overlay.</t>
+  </si>
+  <si>
+    <t>KEY: IP Address key.</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>128:65</t>
+  </si>
+  <si>
+    <t>KEY: IP Subnet mask.</t>
+  </si>
+  <si>
+    <t>VLAN_SUBNET_TCAM_DATA_ONLY_t</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPRI</t>
+  </si>
+  <si>
+    <t>37:35</t>
+  </si>
+  <si>
+    <t>802.1p/PCP associated with inner VLAN tag assigned by this entry.</t>
+  </si>
+  <si>
+    <t>ICFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFI/DE associated with inner VLAN tag assigned by this entry.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFI/DE associated with outer VLAN tag assigned by this entry.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG_ACTION_PROFILE_PTR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>32:27</t>
+  </si>
+  <si>
+    <t>Ingress VLAN tag action profile pointer, used as the index into the ING_VLAN_TAG_ACTION_PROFILE table.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal outer VLAN ID.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal inner VLAN ID.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPRI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>802.1p/PCP associated with outer VLAN tag assigned by this entry.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,7 +1781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1847,6 +1974,15 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1909,7 +2045,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1941,10 +2077,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1976,7 +2111,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2152,15 +2286,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="38.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
@@ -2173,7 +2307,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="36">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -2199,7 +2333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="33">
       <c r="A2" s="15">
         <v>512</v>
       </c>
@@ -2212,7 +2346,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="32.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>81</v>
       </c>
@@ -2238,9 +2372,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>29</v>
@@ -2258,7 +2392,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>27</v>
@@ -2276,7 +2410,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="51"/>
       <c r="B6" s="8" t="s">
         <v>25</v>
@@ -2294,7 +2428,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -2312,7 +2446,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="51"/>
       <c r="B8" s="8" t="s">
         <v>20</v>
@@ -2330,7 +2464,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="51"/>
       <c r="B9" s="8" t="s">
         <v>18</v>
@@ -2348,7 +2482,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="51"/>
       <c r="B10" s="8" t="s">
         <v>16</v>
@@ -2366,7 +2500,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="51"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
@@ -2384,7 +2518,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="33">
       <c r="A12" s="51"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
@@ -2402,7 +2536,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
         <v>9</v>
@@ -2420,7 +2554,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="51"/>
       <c r="B14" s="8" t="s">
         <v>7</v>
@@ -2438,7 +2572,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="49.5">
       <c r="A15" s="51"/>
       <c r="B15" s="8" t="s">
         <v>5</v>
@@ -2456,10 +2590,10 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="52"/>
       <c r="B16" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
@@ -2491,14 +2625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.625" style="24" customWidth="1"/>
     <col min="2" max="2" width="32" style="24" customWidth="1"/>
@@ -2511,12 +2645,12 @@
     <col min="9" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>88</v>
@@ -2537,7 +2671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="396" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="396">
       <c r="A2" s="27">
         <v>512</v>
       </c>
@@ -2552,10 +2686,10 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="44" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="41" t="s">
         <v>81</v>
       </c>
@@ -2581,550 +2715,550 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="63" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="63"/>
       <c r="B5" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" s="63"/>
       <c r="B6" s="36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="63"/>
       <c r="B7" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
       <c r="F7" s="34" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
       <c r="A8" s="63"/>
       <c r="B8" s="36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
       <c r="F8" s="34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
       <c r="A9" s="63"/>
       <c r="B9" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="63"/>
       <c r="B10" s="36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" s="63"/>
       <c r="B12" s="36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
       <c r="A13" s="63"/>
       <c r="B13" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="34" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
       <c r="A14" s="63"/>
       <c r="B14" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="63"/>
       <c r="B15" s="45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="45" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="63"/>
       <c r="B16" s="45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
       <c r="F16" s="45" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="63"/>
       <c r="B17" s="45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="63"/>
       <c r="B18" s="45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="63"/>
       <c r="B19" s="45" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="63"/>
       <c r="B20" s="45" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="63"/>
       <c r="B21" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="63"/>
       <c r="B22" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
       <c r="F22" s="45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="63"/>
       <c r="B23" s="45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="63"/>
       <c r="B24" s="45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="63"/>
       <c r="B25" s="45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="63"/>
       <c r="B26" s="45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="63"/>
       <c r="B27" s="45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="63"/>
       <c r="B28" s="45" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="63"/>
       <c r="B29" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
       <c r="F29" s="45" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="63"/>
       <c r="B30" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="63"/>
       <c r="B31" s="45" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="63"/>
       <c r="B32" s="45" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
       <c r="F32" s="45" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="63"/>
       <c r="B33" s="45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
       <c r="F33" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="63"/>
       <c r="B34" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
       <c r="F34" s="45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="63"/>
       <c r="B35" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
       <c r="F35" s="45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="64"/>
       <c r="B36" s="45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
       <c r="F36" s="45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
@@ -3143,16 +3277,425 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="42.375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="54">
+      <c r="A1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5">
+      <c r="A2" s="27">
+        <v>512</v>
+      </c>
+      <c r="B2" s="27">
+        <v>129</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="33">
+      <c r="A4" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" s="30" customFormat="1" ht="16.5">
+      <c r="A5" s="66"/>
+      <c r="B5" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="30" customFormat="1" ht="16.5">
+      <c r="A6" s="66"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" s="30" customFormat="1" ht="16.5">
+      <c r="A7" s="67"/>
+      <c r="B7" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="42.375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="54">
+      <c r="A1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5">
+      <c r="A2" s="27">
+        <v>928</v>
+      </c>
+      <c r="B2" s="27">
+        <v>38</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" s="30" customFormat="1" ht="16.5">
+      <c r="A5" s="53"/>
+      <c r="B5" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="30" customFormat="1" ht="16.5">
+      <c r="A6" s="53"/>
+      <c r="B6" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="30" customFormat="1" ht="16.5">
+      <c r="A7" s="53"/>
+      <c r="B7" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5">
+      <c r="A8" s="53"/>
+      <c r="B8" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5">
+      <c r="A9" s="53"/>
+      <c r="B9" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5">
+      <c r="A10" s="53"/>
+      <c r="B10" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.875" style="1" customWidth="1"/>
@@ -3165,7 +3708,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="36">
       <c r="A1" s="18" t="s">
         <v>90</v>
       </c>
@@ -3191,7 +3734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="33">
       <c r="A2" s="15">
         <v>512</v>
       </c>
@@ -3204,7 +3747,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="32.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>81</v>
       </c>
@@ -3230,9 +3773,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="49.5">
       <c r="A4" s="50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>45</v>
@@ -3250,7 +3793,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>62</v>
@@ -3268,7 +3811,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="49.5">
       <c r="A6" s="51"/>
       <c r="B6" s="8" t="s">
         <v>61</v>
@@ -3286,7 +3829,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>59</v>
@@ -3304,7 +3847,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="33">
       <c r="A8" s="51"/>
       <c r="B8" s="8" t="s">
         <v>57</v>
@@ -3322,7 +3865,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="51"/>
       <c r="B9" s="4"/>
       <c r="C9" s="6"/>
@@ -3340,7 +3883,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="51"/>
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
@@ -3358,7 +3901,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="51"/>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
@@ -3376,7 +3919,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="33">
       <c r="A12" s="51"/>
       <c r="B12" s="8" t="s">
         <v>51</v>
@@ -3394,7 +3937,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
         <v>45</v>
@@ -3412,7 +3955,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="51"/>
       <c r="B14" s="8" t="s">
         <v>48</v>
@@ -3430,7 +3973,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="51"/>
       <c r="B15" s="8" t="s">
         <v>46</v>
@@ -3448,7 +3991,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="33">
       <c r="A16" s="51"/>
       <c r="B16" s="8" t="s">
         <v>44</v>
@@ -3466,7 +4009,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="66" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="66">
       <c r="A17" s="51"/>
       <c r="B17" s="8" t="s">
         <v>42</v>
@@ -3484,7 +4027,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="51"/>
       <c r="B18" s="8" t="s">
         <v>40</v>
@@ -3500,7 +4043,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="115.5">
       <c r="A19" s="51"/>
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
@@ -3518,7 +4061,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="33">
       <c r="A20" s="51"/>
       <c r="B20" s="4"/>
       <c r="C20" s="6"/>
@@ -3536,7 +4079,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="33">
       <c r="A21" s="51"/>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
@@ -3554,7 +4097,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="33">
       <c r="A22" s="51"/>
       <c r="B22" s="8" t="s">
         <v>33</v>
@@ -3572,7 +4115,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="33">
       <c r="A23" s="52"/>
       <c r="B23" s="8" t="s">
         <v>31</v>
@@ -3607,15 +4150,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
@@ -3628,7 +4171,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="36">
       <c r="A1" s="18" t="s">
         <v>90</v>
       </c>
@@ -3654,12 +4197,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="54" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>179</v>
+        <v>410</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>82</v>
@@ -3669,7 +4212,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="32.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>81</v>
       </c>
@@ -3695,15 +4238,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="51" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
@@ -3715,13 +4258,13 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
@@ -3733,13 +4276,13 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="51"/>
       <c r="B6" s="8" t="s">
-        <v>118</v>
+        <v>404</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
@@ -3749,13 +4292,13 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
@@ -3767,129 +4310,143 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="51"/>
       <c r="B8" s="8" t="s">
-        <v>118</v>
+        <v>404</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="51"/>
       <c r="B9" s="8" t="s">
-        <v>158</v>
+        <v>403</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>122</v>
+        <v>371</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="51"/>
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="51"/>
       <c r="B11" s="8" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="66" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="51"/>
       <c r="B12" s="8" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="66">
       <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="51"/>
       <c r="B14" s="8" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="52"/>
+      <c r="B15" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4"/>
+      <c r="G15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A4:A15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -3904,15 +4461,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="38.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
@@ -3925,7 +4482,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="36">
       <c r="A1" s="18" t="s">
         <v>90</v>
       </c>
@@ -3951,9 +4508,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="15" customFormat="1">
       <c r="A2" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>110</v>
@@ -3961,7 +4518,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="32.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>81</v>
       </c>
@@ -3987,9 +4544,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>156</v>
@@ -4007,7 +4564,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>118</v>
@@ -4025,7 +4582,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>154</v>
@@ -4043,7 +4600,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>118</v>
@@ -4061,7 +4618,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
         <v>118</v>
@@ -4079,7 +4636,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
         <v>150</v>
@@ -4097,7 +4654,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>118</v>
@@ -4115,10 +4672,10 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>127</v>
@@ -4133,7 +4690,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
         <v>146</v>
@@ -4151,7 +4708,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
         <v>144</v>
@@ -4169,7 +4726,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="8" t="s">
         <v>142</v>
@@ -4187,7 +4744,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
         <v>118</v>
@@ -4205,7 +4762,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
         <v>139</v>
@@ -4223,7 +4780,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="8" t="s">
         <v>137</v>
@@ -4241,7 +4798,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
         <v>135</v>
@@ -4259,10 +4816,10 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>163</v>
@@ -4277,10 +4834,10 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>161</v>
@@ -4291,12 +4848,12 @@
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="15"/>
       <c r="D21" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>162</v>
@@ -4309,7 +4866,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
       <c r="C22" s="15"/>
@@ -4327,7 +4884,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="15"/>
@@ -4345,10 +4902,10 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>126</v>
@@ -4377,15 +4934,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" style="24" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="24" bestFit="1" customWidth="1"/>
@@ -4398,7 +4955,7 @@
     <col min="9" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="54">
       <c r="A1" s="25" t="s">
         <v>90</v>
       </c>
@@ -4424,7 +4981,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="27">
         <v>512</v>
       </c>
@@ -4439,10 +4996,10 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="25" t="s">
         <v>81</v>
       </c>
@@ -4468,15 +5025,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A4" s="53" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -4484,13 +5041,13 @@
       <c r="G4" s="15"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A5" s="53"/>
       <c r="B5" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -4498,13 +5055,13 @@
       <c r="G5" s="15"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A6" s="53"/>
       <c r="B6" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -4512,70 +5069,70 @@
       <c r="G6" s="15"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A7" s="53"/>
       <c r="B7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A8" s="53"/>
       <c r="B8" s="8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A9" s="53"/>
       <c r="B9" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="15">
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A10" s="53"/>
       <c r="B10" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -4583,13 +5140,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4602,15 +5159,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" style="17" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="17" customWidth="1"/>
@@ -4623,7 +5180,7 @@
     <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="24" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="24" customFormat="1" ht="36">
       <c r="A1" s="25" t="s">
         <v>90</v>
       </c>
@@ -4649,7 +5206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="24" customFormat="1" ht="16.5">
       <c r="A2" s="27">
         <v>512</v>
       </c>
@@ -4664,10 +5221,10 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="24" customFormat="1" ht="18">
       <c r="A3" s="25" t="s">
         <v>81</v>
       </c>
@@ -4693,12 +5250,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="21" customFormat="1" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="181.5">
       <c r="A4" s="54" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="7">
         <v>32</v>
@@ -4706,19 +5263,19 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="21" customFormat="1" ht="66">
       <c r="A5" s="55"/>
       <c r="B5" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="7">
         <v>31</v>
@@ -4726,43 +5283,43 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A6" s="55"/>
       <c r="B6" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="15">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A7" s="55"/>
       <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -4771,112 +5328,112 @@
       <c r="H7" s="8"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A8" s="55"/>
       <c r="B8" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="55"/>
       <c r="B9" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G9" s="29">
         <v>0</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A10" s="55"/>
       <c r="B10" s="9"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A11" s="55"/>
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="15">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" s="21" customFormat="1" ht="99">
       <c r="A13" s="55"/>
       <c r="B13" s="9" t="s">
         <v>137</v>
@@ -4887,20 +5444,20 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G13" s="15">
         <v>0</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="33">
       <c r="A14" s="55"/>
       <c r="B14" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>97</v>
@@ -4908,19 +5465,19 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A15" s="56"/>
       <c r="B15" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -4928,72 +5485,72 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="17" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="18" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="19" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="21" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="22" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="23" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="24" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="25" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="26" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="27" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="29" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="30" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="31" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="32" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="33" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="34" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="35" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="36" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="37" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="38" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="39" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="40" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="41" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="42" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="43" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="44" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="45" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="46" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="47" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="48" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="49" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="50" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="51" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="52" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="53" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="54" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="55" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="56" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="57" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="58" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="59" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="60" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="61" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="62" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="63" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="64" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="65" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="66" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="67" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="68" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="69" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="70" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="71" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="72" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="73" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="74" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="75" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="76" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="77" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="78" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="79" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="80" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="81" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:9" s="21" customFormat="1" ht="16.5"/>
+    <row r="17" s="21" customFormat="1" ht="16.5"/>
+    <row r="18" s="21" customFormat="1" ht="16.5"/>
+    <row r="19" s="21" customFormat="1" ht="16.5"/>
+    <row r="20" s="21" customFormat="1" ht="16.5"/>
+    <row r="21" s="21" customFormat="1" ht="16.5"/>
+    <row r="22" s="21" customFormat="1" ht="16.5"/>
+    <row r="23" s="21" customFormat="1" ht="16.5"/>
+    <row r="24" s="21" customFormat="1" ht="16.5"/>
+    <row r="25" s="21" customFormat="1" ht="16.5"/>
+    <row r="26" s="21" customFormat="1" ht="16.5"/>
+    <row r="27" s="21" customFormat="1" ht="16.5"/>
+    <row r="28" s="21" customFormat="1" ht="16.5"/>
+    <row r="29" s="21" customFormat="1" ht="16.5"/>
+    <row r="30" s="21" customFormat="1" ht="16.5"/>
+    <row r="31" s="21" customFormat="1" ht="16.5"/>
+    <row r="32" s="21" customFormat="1" ht="16.5"/>
+    <row r="33" s="21" customFormat="1" ht="16.5"/>
+    <row r="34" s="21" customFormat="1" ht="16.5"/>
+    <row r="35" s="21" customFormat="1" ht="16.5"/>
+    <row r="36" s="21" customFormat="1" ht="16.5"/>
+    <row r="37" s="21" customFormat="1" ht="16.5"/>
+    <row r="38" s="21" customFormat="1" ht="16.5"/>
+    <row r="39" s="21" customFormat="1" ht="16.5"/>
+    <row r="40" s="21" customFormat="1" ht="16.5"/>
+    <row r="41" s="21" customFormat="1" ht="16.5"/>
+    <row r="42" s="21" customFormat="1" ht="16.5"/>
+    <row r="43" s="21" customFormat="1" ht="16.5"/>
+    <row r="44" s="21" customFormat="1" ht="16.5"/>
+    <row r="45" s="21" customFormat="1" ht="16.5"/>
+    <row r="46" s="21" customFormat="1" ht="16.5"/>
+    <row r="47" s="21" customFormat="1" ht="16.5"/>
+    <row r="48" s="21" customFormat="1" ht="16.5"/>
+    <row r="49" s="21" customFormat="1" ht="16.5"/>
+    <row r="50" s="21" customFormat="1" ht="16.5"/>
+    <row r="51" s="21" customFormat="1" ht="16.5"/>
+    <row r="52" s="21" customFormat="1" ht="16.5"/>
+    <row r="53" s="21" customFormat="1" ht="16.5"/>
+    <row r="54" s="21" customFormat="1" ht="16.5"/>
+    <row r="55" s="21" customFormat="1" ht="16.5"/>
+    <row r="56" s="21" customFormat="1" ht="16.5"/>
+    <row r="57" s="21" customFormat="1" ht="16.5"/>
+    <row r="58" s="21" customFormat="1" ht="16.5"/>
+    <row r="59" s="21" customFormat="1" ht="16.5"/>
+    <row r="60" s="21" customFormat="1" ht="16.5"/>
+    <row r="61" s="21" customFormat="1" ht="16.5"/>
+    <row r="62" s="21" customFormat="1" ht="16.5"/>
+    <row r="63" s="21" customFormat="1" ht="16.5"/>
+    <row r="64" s="21" customFormat="1" ht="16.5"/>
+    <row r="65" s="21" customFormat="1" ht="16.5"/>
+    <row r="66" s="21" customFormat="1" ht="16.5"/>
+    <row r="67" s="21" customFormat="1" ht="16.5"/>
+    <row r="68" s="21" customFormat="1" ht="16.5"/>
+    <row r="69" s="21" customFormat="1" ht="16.5"/>
+    <row r="70" s="21" customFormat="1" ht="16.5"/>
+    <row r="71" s="21" customFormat="1" ht="16.5"/>
+    <row r="72" s="21" customFormat="1" ht="16.5"/>
+    <row r="73" s="21" customFormat="1" ht="16.5"/>
+    <row r="74" s="21" customFormat="1" ht="16.5"/>
+    <row r="75" s="21" customFormat="1" ht="16.5"/>
+    <row r="76" s="21" customFormat="1" ht="16.5"/>
+    <row r="77" s="21" customFormat="1" ht="16.5"/>
+    <row r="78" s="21" customFormat="1" ht="16.5"/>
+    <row r="79" s="21" customFormat="1" ht="16.5"/>
+    <row r="80" s="21" customFormat="1" ht="16.5"/>
+    <row r="81" s="21" customFormat="1" ht="16.5"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:A15"/>
@@ -5005,15 +5562,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.25" style="24" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="24" bestFit="1" customWidth="1"/>
@@ -5026,7 +5583,7 @@
     <col min="9" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="54">
       <c r="A1" s="25" t="s">
         <v>90</v>
       </c>
@@ -5052,7 +5609,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="27">
         <v>512</v>
       </c>
@@ -5067,10 +5624,10 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="25" t="s">
         <v>81</v>
       </c>
@@ -5096,132 +5653,132 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A4" s="57" t="s">
-        <v>242</v>
+        <v>411</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A5" s="57"/>
       <c r="B5" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A6" s="57"/>
       <c r="B6" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G6" s="15">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A7" s="57"/>
       <c r="B7" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A8" s="57"/>
       <c r="B8" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A9" s="57"/>
       <c r="B9" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="15">
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="30" customFormat="1" ht="16.5">
       <c r="A10" s="58"/>
       <c r="B10" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -5229,13 +5786,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5248,7 +5805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -5256,7 +5813,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" style="24" customWidth="1"/>
     <col min="2" max="2" width="17.875" style="24" customWidth="1"/>
@@ -5269,7 +5826,7 @@
     <col min="9" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="54">
       <c r="A1" s="25" t="s">
         <v>90</v>
       </c>
@@ -5295,7 +5852,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="27">
         <v>512</v>
       </c>
@@ -5303,17 +5860,17 @@
         <v>10</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="25" t="s">
         <v>81</v>
       </c>
@@ -5339,51 +5896,51 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="16.5">
       <c r="A4" s="59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="7">
         <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="16.5">
       <c r="A5" s="57"/>
       <c r="B5" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="7">
         <v>8</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>45</v>
@@ -5402,14 +5959,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="24" bestFit="1" customWidth="1"/>
@@ -5422,12 +5979,12 @@
     <col min="9" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>88</v>
@@ -5448,7 +6005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="148.5">
       <c r="A2" s="27">
         <v>512</v>
       </c>
@@ -5463,10 +6020,10 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="44" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
       <c r="A3" s="41" t="s">
         <v>81</v>
       </c>
@@ -5492,35 +6049,35 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="17.25">
       <c r="A4" s="60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
       <c r="F4" s="38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25">
       <c r="A5" s="61"/>
       <c r="B5" s="46" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -5528,13 +6085,13 @@
       <c r="G5" s="48"/>
       <c r="H5" s="49"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="17.25">
       <c r="A6" s="61"/>
       <c r="B6" s="46" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -5542,13 +6099,13 @@
       <c r="G6" s="48"/>
       <c r="H6" s="49"/>
     </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="17.25">
       <c r="A7" s="61"/>
       <c r="B7" s="46" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -5556,13 +6113,13 @@
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="17.25">
       <c r="A8" s="61"/>
       <c r="B8" s="46" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -5570,13 +6127,13 @@
       <c r="G8" s="48"/>
       <c r="H8" s="49"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="17.25">
       <c r="A9" s="61"/>
       <c r="B9" s="46" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -5584,13 +6141,13 @@
       <c r="G9" s="48"/>
       <c r="H9" s="49"/>
     </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="17.25">
       <c r="A10" s="61"/>
       <c r="B10" s="46" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -5598,13 +6155,13 @@
       <c r="G10" s="48"/>
       <c r="H10" s="49"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="17.25">
       <c r="A11" s="61"/>
       <c r="B11" s="46" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
@@ -5612,13 +6169,13 @@
       <c r="G11" s="48"/>
       <c r="H11" s="49"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="17.25">
       <c r="A12" s="61"/>
       <c r="B12" s="46" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -5626,13 +6183,13 @@
       <c r="G12" s="48"/>
       <c r="H12" s="49"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="17.25">
       <c r="A13" s="61"/>
       <c r="B13" s="46" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -5640,202 +6197,202 @@
       <c r="G13" s="48"/>
       <c r="H13" s="49"/>
     </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="17.25">
       <c r="A14" s="62"/>
       <c r="B14" s="36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="35"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25">
       <c r="A15" s="62"/>
       <c r="B15" s="36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="35"/>
       <c r="F15" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25">
       <c r="A16" s="62"/>
       <c r="B16" s="36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="35"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="62"/>
       <c r="B17" s="36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="35"/>
       <c r="F17" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="62"/>
       <c r="B18" s="36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="35"/>
       <c r="F18" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="62"/>
       <c r="B19" s="36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="35"/>
       <c r="F19" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25">
       <c r="A20" s="62"/>
       <c r="B20" s="36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="35"/>
       <c r="F20" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25">
       <c r="A21" s="62"/>
       <c r="B21" s="36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="35"/>
       <c r="F21" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25">
       <c r="A22" s="62"/>
       <c r="B22" s="36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="35"/>
       <c r="F22" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25">
       <c r="A23" s="62"/>
       <c r="B23" s="36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="35"/>
       <c r="F23" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25">
       <c r="A24" s="62"/>
       <c r="B24" s="36" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>2</v>
@@ -5843,7 +6400,7 @@
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="33"/>
